--- a/BoardGameDesign.xlsx
+++ b/BoardGameDesign.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15480" activeTab="2"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="1" r:id="rId1"/>
@@ -3265,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J181"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -4766,8 +4766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4817,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q310"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
